--- a/xlsx/country_comparison/global_movement_all_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_all_positive.xlsx
@@ -451,7 +451,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.320926957001515</v>
+        <v>0.320837288771612</v>
       </c>
       <c r="C2" t="n">
         <v>0.278475647107507</v>
@@ -478,13 +478,13 @@
         <v>0.362537857136665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.437685282340813</v>
+        <v>0.43758941529404</v>
       </c>
       <c r="L2" t="n">
         <v>0.262613866561213</v>
       </c>
       <c r="M2" t="n">
-        <v>0.328319631097193</v>
+        <v>0.328093121100358</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.517681293588919</v>
+        <v>0.517788182474842</v>
       </c>
       <c r="C3" t="n">
         <v>0.54627578656303</v>
@@ -513,19 +513,19 @@
         <v>0.56757184923964</v>
       </c>
       <c r="I3" t="n">
-        <v>0.552165435505529</v>
+        <v>0.55216543550553</v>
       </c>
       <c r="J3" t="n">
         <v>0.477777082615971</v>
       </c>
       <c r="K3" t="n">
-        <v>0.512682328274899</v>
+        <v>0.512806185247762</v>
       </c>
       <c r="L3" t="n">
         <v>0.401448708245477</v>
       </c>
       <c r="M3" t="n">
-        <v>0.497295721158366</v>
+        <v>0.497608063879741</v>
       </c>
     </row>
     <row r="4">
@@ -533,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193757331037532</v>
+        <v>0.193840385798628</v>
       </c>
       <c r="C4" t="n">
         <v>0.210178986079405</v>
@@ -560,13 +560,13 @@
         <v>0.138422252187228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0414235973359027</v>
+        <v>0.041389097327218</v>
       </c>
       <c r="L4" t="n">
         <v>0.239448322059387</v>
       </c>
       <c r="M4" t="n">
-        <v>0.231271689923813</v>
+        <v>0.231353361940565</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0738340049950829</v>
+        <v>0.0738534633965688</v>
       </c>
       <c r="C5" t="n">
         <v>0.0936479323164794</v>
@@ -601,13 +601,13 @@
         <v>0.0582779037491039</v>
       </c>
       <c r="K5" t="n">
-        <v>0.019059891303726</v>
+        <v>0.0190034293997217</v>
       </c>
       <c r="L5" t="n">
         <v>0.0917478520938045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0713157554410489</v>
+        <v>0.0713990117454269</v>
       </c>
     </row>
     <row r="6">
@@ -615,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.10124092951548</v>
+        <v>0.101223831063597</v>
       </c>
       <c r="C6" t="n">
         <v>0.104803107568438</v>
@@ -642,13 +642,13 @@
         <v>0.133371788659431</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0243397353076628</v>
+        <v>0.0243564982046231</v>
       </c>
       <c r="L6" t="n">
         <v>0.175584168878879</v>
       </c>
       <c r="M6" t="n">
-        <v>0.121043041081575</v>
+        <v>0.120912756712212</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.675505142809517</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C7" t="n">
         <v>0.719216740354837</v>
@@ -683,13 +683,13 @@
         <v>0.629978960602202</v>
       </c>
       <c r="K7" t="n">
-        <v>0.559271647397065</v>
+        <v>0.559364498889858</v>
       </c>
       <c r="L7" t="n">
         <v>0.729122438104651</v>
       </c>
       <c r="M7" t="n">
-        <v>0.666881289815218</v>
+        <v>0.667115559981111</v>
       </c>
     </row>
     <row r="8">
@@ -697,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.287069831355051</v>
+        <v>0.28712403767411</v>
       </c>
       <c r="C8" t="n">
         <v>0.313647928541715</v>
@@ -715,7 +715,7 @@
         <v>0.230574068203064</v>
       </c>
       <c r="H8" t="n">
-        <v>0.358545434948673</v>
+        <v>0.358545434948672</v>
       </c>
       <c r="I8" t="n">
         <v>0.282929616672877</v>
@@ -724,13 +724,13 @@
         <v>0.262261124032059</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0712479621237995</v>
+        <v>0.0712103829302541</v>
       </c>
       <c r="L8" t="n">
         <v>0.439735495491456</v>
       </c>
       <c r="M8" t="n">
-        <v>0.328666385294041</v>
+        <v>0.328657450017618</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_all_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_all_positive.xlsx
@@ -466,7 +466,7 @@
         <v>0.182911175028113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.290122876594546</v>
+        <v>0.290122876594547</v>
       </c>
       <c r="H2" t="n">
         <v>0.253886167121302</v>
@@ -560,7 +560,7 @@
         <v>0.138422252187228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.041389097327218</v>
+        <v>0.0413890973272179</v>
       </c>
       <c r="L4" t="n">
         <v>0.239448322059387</v>
@@ -715,7 +715,7 @@
         <v>0.230574068203064</v>
       </c>
       <c r="H8" t="n">
-        <v>0.358545434948672</v>
+        <v>0.358545434948673</v>
       </c>
       <c r="I8" t="n">
         <v>0.282929616672877</v>
